--- a/docs/記憶構造.xlsx
+++ b/docs/記憶構造.xlsx
@@ -83,143 +83,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>namespaceがApp1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Systemを使っている</t>
     <rPh sb="7" eb="8">
       <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス名が　Program</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>関数情報：記憶クラス=static、戻り値=void、名称=Main、引数=args[]、引数の型=Object</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キオク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラムステップ　ステップタイプ=代入、非代入変数=i、非代入変数の型=var、代入値=arg[0]</t>
-    <rPh sb="18" eb="20">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラムステップ　ステップタイプ=関数呼び出し、結果代入変数=v、結果代入変数の型=int、呼び出しメソッド名=func1、呼び出し引数=i、引数の型=var</t>
-    <rPh sb="18" eb="20">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -234,71 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関数情報：記憶クラス=auto、メンバアクセス修飾子=protected、戻り値=int、名称=func1、仮引数=aInt、仮引数の型=int</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キオク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラムステップ　ステップタイプ=復帰、復帰値=aInt、復帰値の型=int</t>
-    <rPh sb="18" eb="20">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>フッキ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こんな感じで記憶したい</t>
     <rPh sb="3" eb="4">
       <t>カン</t>
@@ -312,6 +113,241 @@
     <t>例題ソース</t>
     <rPh sb="0" eb="2">
       <t>レイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数情報：
+記憶クラス=static
+戻り値=void
+名称=Main
+引数=args[]
+引数の型=Object
+</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クラス：
+名称=Program
+</t>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">namespace：
+名称=App1
+</t>
+    <rPh sb="11" eb="13">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムステップ：
+ステップタイプ=代入
+非代入変数=I
+非代入変数の型=var
+代入値=arg[0]
+</t>
+    <rPh sb="19" eb="21">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムステップ：
+ステップタイプ=関数呼び出し
+結果代入変数=v
+結果代入変数の型=int
+呼び出しメソッド名=func1
+呼び出し引数=I
+引数の型=var
+</t>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数情報：
+記憶クラス=auto
+メンバアクセス修飾子=protected
+戻り値=int
+名称=func1
+仮引数=aInt
+仮引数の型=int
+</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムステップ：
+ステップタイプ=復帰
+復帰値=aInt
+復帰値の型=int
+</t>
+    <rPh sb="19" eb="21">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フッキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -359,9 +395,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,141 +2440,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F24"/>
+  <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="4" width="3.25" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="2" max="4" width="3.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="9" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
+    <row r="11" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
+    <row r="13" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
+    <row r="15" spans="2:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
-        <v>19</v>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
+    <row r="18" spans="2:6" ht="108" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
+    <row r="20" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
-        <v>22</v>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
-        <v>20</v>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
-        <v>23</v>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/記憶構造.xlsx
+++ b/docs/記憶構造.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>using System;</t>
   </si>
@@ -113,43 +113,6 @@
     <t>例題ソース</t>
     <rPh sb="0" eb="2">
       <t>レイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">関数情報：
-記憶クラス=static
-戻り値=void
-名称=Main
-引数=args[]
-引数の型=Object
-</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キオク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,12 +314,530 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>グラフノードで表現する属性と値</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">関数情報：
+記憶クラス=static
+戻り値=void
+名称=Main
+引数の型=Object[]
+引数名=args
+</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[LinkNode]
+LiblaryName：Testsrc:exe
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[CompileNode]
+SourceName=Testsrc.cs
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[DependencyNode]
+using=System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[NameSpaceNode]
+NameSpace=App1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ClassNode]
+ClassName=Program</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FunctionStartNode]
+StorageClass=static
+ReturnValue=void
+FunctionName=Main
+ArgumentType=Object[]
+ArgumentName=args_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ProgramStepNode]
+StepType=Substitution
+For=I
+As=var
+Subsutitute=arg_(0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ProgramStepNode]
+StepType=FunctionCall
+ReturnVarType=int
+RetunrVar=v
+FuncName=func1
+ArgumentType=var
+Argument=i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Symbol]
+type=void
+Name=Main
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FunctionEndNode]
+FunctionName=Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FunctionStartNode]
+StorageClass=auto
+MemberAccessDeclaretiv=protected
+ReturnValue=int
+FunctionName=func1
+ArgumentType=int
+ArgumentName=aInt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Symbol]
+ Type=var
+ Name=i
+[Symbol]
+ Type=var
+ Name=arg_
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Symbol]
+ Type=int
+ Name=v
+[Symbol]
+ Type=FunctionName
+ Name=func1
+[Symbol]
+ Type=int
+ Name=i
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[FunctionEndNode]
+FunctionName=func1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ProgramStepNode]
+StepType=Return
+ReturnVarName=aInt
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトファイルから取得</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノードを識別する考え方</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名から取得</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンボルテーブルへ登録するシンボル</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"UsingDirective"ノードから取得</t>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"NamespaceDeclaration"から取得</t>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンパイル単位</t>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成モジュール名</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトファイル（.csproj）に記載されているリンク後のモジュール名を取得。ただし、当面はファイル名とする。</t>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウメン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"CompilationUnit[0..)"の発生を識別して作成する。
+名前は処理しているファイル名から取得する。</t>
+    <rPh sb="23" eb="25">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ClassDeclaretion"から取得</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前空間のスコープ</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"OpenBraceToken"でスコープ開始を判定</t>
+    <rPh sb="21" eb="23">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れ子の制御</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"NamespaceDeclaration"ノードを検出ししたら、Name属性から空間名を取得し、NamespaceVertexを作成してググラフに追加する。
+現スコープ種別を"NameSpace"にする。</t>
+    <rPh sb="26" eb="28">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"OpenBraceToken"を検出したら、現在のスコープ種別をスタックにPushする。</t>
+    <rPh sb="17" eb="19">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"OpenBraceToken"を検出したら、現在のスペース種別をスタックにPushする。</t>
+    <rPh sb="17" eb="19">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"UsingDirective"ノードを検出したら、Name属性から依存先名を取得し、UsingDirectiveVertexを作成して、グラフに追加する。
+</t>
+    <rPh sb="20" eb="22">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ClassDeclaration"ノードを検出したら、"Identifier"属性からクラス名を取得し、ClassVertexを作成してグラフに追加する。
+現スコープ種別を"Class"にする。</t>
+    <rPh sb="22" eb="24">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Parameter"ノードを検出したら、"Identifier（パラメタ名）","Type（型）"をFunctionDeclarationVertex"に登録する。</t>
+    <rPh sb="15" eb="17">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"CloseParenToken（閉じカッコ）"を検出したら、以下の通りにVertexを操作する。
+FunctionParenのとき：
+　FunctionDeclaratinoVertexをグラフに登録する。
+</t>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"MethodDeclaration"ノードを検出したら、"Modifiers(記憶クラス）","ReturnType（戻り値）","Identifier（名称）"を取得して"FunctionDeclarationVertex"を作成する。グラフにはまだ登録しない。
+現スコープを"Function"にする。</t>
+    <rPh sb="23" eb="25">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"OpenParenToken（開きカッコ）"を検出したら、現スコープに従ってカッコの意味を覚える。
+現スコープがFunctionのとき：
+　"FunctionParen"
+</t>
+    <rPh sb="16" eb="17">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノードを識別する具体的な方法
+ノード、トークン、トリビア発見時の動作</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +850,21 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -395,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,12 +901,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF33CC33"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,16 +944,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1524001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159205</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -444,8 +962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3724275" y="4362450"/>
-          <a:ext cx="9953625" cy="3743325"/>
+          <a:off x="5660572" y="14082033"/>
+          <a:ext cx="6214383" cy="3863068"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -488,16 +1006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1743076</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3336471</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -506,8 +1024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="4867275"/>
-          <a:ext cx="4762500" cy="3038475"/>
+          <a:off x="5879647" y="14603187"/>
+          <a:ext cx="5798003" cy="3136446"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -550,16 +1068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -568,8 +1086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000501" y="4486275"/>
-          <a:ext cx="1581150" cy="295275"/>
+          <a:off x="5936797" y="14211301"/>
+          <a:ext cx="2890157" cy="306161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,16 +1136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1870984</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>151040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -636,8 +1154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4067176" y="4962525"/>
-          <a:ext cx="1381124" cy="295275"/>
+          <a:off x="6007555" y="14703879"/>
+          <a:ext cx="2809874" cy="306161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -686,16 +1204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1114426</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2080534</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -704,8 +1222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276726" y="5095873"/>
-          <a:ext cx="1847850" cy="876302"/>
+          <a:off x="6217105" y="15196456"/>
+          <a:ext cx="2438399" cy="903516"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -779,16 +1297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2137683</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>337529</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -797,8 +1315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="6124575"/>
-          <a:ext cx="1733550" cy="276225"/>
+          <a:off x="6274254" y="16257815"/>
+          <a:ext cx="2404454" cy="281668"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -842,16 +1360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1172333</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2138441</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191258</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338287</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -860,8 +1378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4338574" y="6537763"/>
-          <a:ext cx="1731908" cy="275568"/>
+          <a:off x="6275012" y="16706851"/>
+          <a:ext cx="2404454" cy="287111"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -905,16 +1423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1117382</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>656</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2083490</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>250607</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317281</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -923,8 +1441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4283623" y="7003173"/>
-          <a:ext cx="1846208" cy="332062"/>
+          <a:off x="6220061" y="17190560"/>
+          <a:ext cx="2438399" cy="343605"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -968,16 +1486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1088572</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>170088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2898321</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -986,8 +1504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515101" y="5067298"/>
-          <a:ext cx="1847850" cy="876302"/>
+          <a:off x="9429751" y="15205981"/>
+          <a:ext cx="1809749" cy="903516"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1062,15 +1580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16094</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1161815</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>378045</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2822121</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1079,8 +1597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6578819" y="6667500"/>
-          <a:ext cx="1733551" cy="276225"/>
+          <a:off x="9502994" y="16482333"/>
+          <a:ext cx="1660306" cy="287111"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -1124,16 +1642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1098098</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2898322</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1142,8 +1660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524626" y="7000874"/>
-          <a:ext cx="1847850" cy="333376"/>
+          <a:off x="9439277" y="17022536"/>
+          <a:ext cx="1800224" cy="344261"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1187,16 +1705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1013734</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1053910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1207,9 +1725,197 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7377471" y="16158806"/>
+          <a:ext cx="157843" cy="40176"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1053911</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054669</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7393177" y="16622787"/>
+          <a:ext cx="167368" cy="758"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1016690</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054668</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5124451" y="6048375"/>
-          <a:ext cx="152400" cy="1"/>
+          <a:off x="7359951" y="17073272"/>
+          <a:ext cx="196598" cy="37978"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1991968</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1993447</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10147469" y="16295176"/>
+          <a:ext cx="372836" cy="1479"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1991969</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1998211</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10209723" y="16892868"/>
+          <a:ext cx="253092" cy="6242"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1235,203 +1941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7718</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1928133</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8476</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5123515" y="6456750"/>
-          <a:ext cx="161268" cy="758"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8475</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10674</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>656</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5110706" y="6907152"/>
-          <a:ext cx="189842" cy="2199"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197069</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7251810" y="6473715"/>
-          <a:ext cx="381000" cy="6569"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197071</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="14" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7247049" y="7142271"/>
-          <a:ext cx="400049" cy="2956"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>35487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>119073</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1440,8 +1958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="5350437"/>
-          <a:ext cx="2171700" cy="2483886"/>
+          <a:off x="6064704" y="15102677"/>
+          <a:ext cx="2828925" cy="2565529"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1581,16 +2099,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1599,8 +2117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276475" y="5372100"/>
-          <a:ext cx="1362075" cy="561975"/>
+          <a:off x="4212771" y="15124340"/>
+          <a:ext cx="1362075" cy="583747"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1650,16 +2168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6912</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>90498</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3060246</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1668,8 +2186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="5321862"/>
-          <a:ext cx="2162175" cy="2483886"/>
+          <a:off x="9293679" y="15112202"/>
+          <a:ext cx="2107746" cy="2565529"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1809,16 +2327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595991</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151041</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1827,8 +2345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191624" y="4495800"/>
-          <a:ext cx="2581275" cy="1504950"/>
+          <a:off x="12265478" y="14163676"/>
+          <a:ext cx="2577192" cy="1553936"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1916,16 +2434,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1206954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1928132</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1934,8 +2452,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="4953000"/>
-          <a:ext cx="714375" cy="238125"/>
+          <a:off x="12922704" y="14637204"/>
+          <a:ext cx="721178" cy="243568"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1968,16 +2486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1966232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2204357</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1986,8 +2504,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639425" y="5353050"/>
-          <a:ext cx="238125" cy="180975"/>
+          <a:off x="13681982" y="15048140"/>
+          <a:ext cx="238125" cy="186418"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2020,16 +2538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1616529</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1804307</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12247</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2038,8 +2556,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10296525" y="5353050"/>
-          <a:ext cx="180975" cy="171450"/>
+          <a:off x="13332279" y="15048140"/>
+          <a:ext cx="187778" cy="176893"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2072,16 +2590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>883104</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1206955</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2090,8 +2608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9563100" y="4933950"/>
-          <a:ext cx="323851" cy="266700"/>
+          <a:off x="12598854" y="14612712"/>
+          <a:ext cx="323851" cy="277585"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2124,16 +2642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>911679</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>949779</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2142,8 +2660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9591675" y="5334000"/>
-          <a:ext cx="38100" cy="200025"/>
+          <a:off x="12627429" y="15029090"/>
+          <a:ext cx="38100" cy="205468"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2440,141 +2958,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F27"/>
+  <dimension ref="B4:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="4" width="3.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" ht="27">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:11" ht="67.5" customHeight="1">
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="67.5" customHeight="1">
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="54">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+    <row r="10" spans="2:11">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="54" customHeight="1">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="27">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="54">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" ht="27">
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" ht="94.5">
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="67.5">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" ht="40.5">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" ht="67.5">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" ht="27">
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="94.5">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="21" spans="2:11">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
     </row>
-    <row r="9" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
+    <row r="22" spans="2:11" ht="135">
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="23" spans="2:11" ht="27">
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
     </row>
-    <row r="11" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="24" spans="2:11">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="25" spans="2:11" ht="121.5">
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
     </row>
-    <row r="13" spans="2:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="26" spans="2:11">
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
     </row>
-    <row r="15" spans="2:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="27" spans="2:11" ht="67.5">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="1" t="s">
+    <row r="28" spans="2:11" ht="27">
+      <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="108" x14ac:dyDescent="0.15">
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="29" spans="2:11">
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="30" spans="2:11">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
-    <row r="20" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E27" s="1" t="s">
+    <row r="34" spans="5:5">
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/記憶構造.xlsx
+++ b/docs/記憶構造.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\itestall\docs\"/>
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全体概要" sheetId="2" r:id="rId1"/>
+    <sheet name="グラフ生成" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -541,54 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクトファイル（.csproj）に記載されているリンク後のモジュール名を取得。ただし、当面はファイル名とする。</t>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>トウメン</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"CompilationUnit[0..)"の発生を識別して作成する。
-名前は処理しているファイル名から取得する。</t>
-    <rPh sb="23" eb="25">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"ClassDeclaretion"から取得</t>
     <rPh sb="20" eb="22">
       <t>シュトク</t>
@@ -832,12 +785,75 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">・プロジェクトファイル（.csproj）に記載されているリンク後のモジュール名を取得し、"ItaLinkVertex"を作成してgraphに登録する。
+・ただし、当面はファイル名とする。
+・[解析]ボタンをクリックしたときに行う。
+</t>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウメン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・"CompilationUnit[0..)"ノードを検出したら、ItaCompilationUnitVertex"を作成してgraphに登録する。
+名前は処理しているファイル名から取得する。</t>
+    <rPh sb="27" eb="29">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +884,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -891,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,6 +967,7980 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="275" name="グループ化 274"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3428999" y="2995612"/>
+          <a:ext cx="7162800" cy="13677900"/>
+          <a:chOff x="3771900" y="2771774"/>
+          <a:chExt cx="7162800" cy="13801726"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3771900" y="2771774"/>
+            <a:ext cx="7162800" cy="13801726"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="角丸四角形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6886575" y="4120930"/>
+            <a:ext cx="2162175" cy="727295"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>LinkNodeVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ModuleName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Tesrsrc.exe</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Extention	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>exe</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="角丸四角形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5438775" y="5162551"/>
+            <a:ext cx="2057400" cy="514350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>App1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="角丸四角形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8448675" y="5175073"/>
+            <a:ext cx="2143125" cy="492301"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>UsingVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>System</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="角丸四角形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5468971" y="5824828"/>
+            <a:ext cx="1998629" cy="480721"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ClassVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ClassName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Program</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="角丸四角形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4124326" y="6601289"/>
+            <a:ext cx="2352674" cy="1409235"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StorageClass	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Static</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ReturnValueType</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Main</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterCount</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterType</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Object[]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>args_</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="角丸四角形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6867525" y="3173006"/>
+            <a:ext cx="2190750" cy="789394"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StartNodeVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>language	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>C#</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>CreateData	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>2015.06.08</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>UpdateDate	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>2015.06.08</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="曲線コネクタ 8"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="7" idx="2"/>
+            <a:endCxn id="2" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7886017" y="4039282"/>
+            <a:ext cx="158530" cy="4763"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="曲線コネクタ 10"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="4" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="8580527" y="4235360"/>
+            <a:ext cx="326848" cy="1552575"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="曲線コネクタ 13"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="2" idx="2"/>
+            <a:endCxn id="3" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="7060407" y="4255293"/>
+            <a:ext cx="314326" cy="1500188"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="曲線コネクタ 16"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="2"/>
+            <a:endCxn id="5" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="6393916" y="5750459"/>
+            <a:ext cx="147927" cy="811"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="曲線コネクタ 22"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="6" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5736606" y="5869607"/>
+            <a:ext cx="295740" cy="1167623"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="角丸四角形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4057650" y="8150329"/>
+            <a:ext cx="2419350" cy="1603271"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 9167"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>LocalDeclarationStatementVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StatementType = Subsutitute</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ValiableDeclaration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>var</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>VariableDeclarator</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>i</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>EqualValueClause</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Operator)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>=</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ElementAccessExpression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>args_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>OpenBracketToken</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Argument	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　　　　　　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>CloseBracketToken</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　　　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="曲線コネクタ 26"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="2"/>
+            <a:endCxn id="26" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5214091" y="8063758"/>
+            <a:ext cx="139805" cy="33338"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="角丸四角形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4076700" y="9868017"/>
+            <a:ext cx="2390775" cy="1600083"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 9167"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>LocalDeclarationStatementVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StatementType = FunctionCall</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ValiableDeclaration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>VariableDeclarator</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>v</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>EqualValueClause</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Operator)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>=</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>InvocationExpression</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>func1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ArgumentListOpenParen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>(</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Argument	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　　　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>i</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ArgumentListCloseParen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="曲線コネクタ 20"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="26" idx="2"/>
+            <a:endCxn id="20" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5212497" y="9808427"/>
+            <a:ext cx="114417" cy="4763"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="角丸四角形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4062287" y="11720687"/>
+            <a:ext cx="2405188" cy="518937"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Main</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="曲線コネクタ 24"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="20" idx="2"/>
+            <a:endCxn id="24" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5142191" y="11590791"/>
+            <a:ext cx="252587" cy="7207"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="角丸四角形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6838950" y="6592704"/>
+            <a:ext cx="2466975" cy="1389246"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StorageClass	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>auto</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ReturnValueType</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>func1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterCount</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterType</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ParameterName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>aInt</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="曲線コネクタ 31"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="2"/>
+            <a:endCxn id="31" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7126784" y="5647051"/>
+            <a:ext cx="287155" cy="1604152"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="角丸四角形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6828764" y="8152905"/>
+            <a:ext cx="2496211" cy="1600694"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 9167"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ReturnStatementVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>StatementType = ReturnStatementSyntax</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>IdentifierNameSyntax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>aInt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="曲線コネクタ 36"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="31" idx="2"/>
+            <a:endCxn id="36" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7989176" y="8065212"/>
+            <a:ext cx="170955" cy="4432"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6810375" y="11745689"/>
+            <a:ext cx="2505075" cy="512986"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>MethodName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Func1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="曲線コネクタ 45"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="2"/>
+            <a:endCxn id="45" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="7073848" y="10742665"/>
+            <a:ext cx="1992090" cy="13957"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="角丸四角形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5676900" y="12509570"/>
+            <a:ext cx="2028825" cy="482530"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ClassEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ClassName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Program</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="曲線コネクタ 49"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="24" idx="2"/>
+            <a:endCxn id="49" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="5843125" y="11661380"/>
+            <a:ext cx="269946" cy="1426432"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="曲線コネクタ 52"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="45" idx="2"/>
+            <a:endCxn id="49" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="7251665" y="11698323"/>
+            <a:ext cx="250895" cy="1371600"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="角丸四角形 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5667375" y="13177995"/>
+            <a:ext cx="2047875" cy="490380"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>App1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="曲線コネクタ 68"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="49" idx="2"/>
+            <a:endCxn id="68" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="6598365" y="13085048"/>
+            <a:ext cx="185895" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="角丸四角形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8267700" y="13953606"/>
+            <a:ext cx="2486024" cy="543444"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>NamespaceName</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>App1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="73" name="曲線コネクタ 72"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="68" idx="2"/>
+            <a:endCxn id="72" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="7958397" y="12401290"/>
+            <a:ext cx="285231" cy="2819399"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="77" name="曲線コネクタ 76"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="72" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="5372360" y="9805726"/>
+            <a:ext cx="8286232" cy="9526"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="角丸四角形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8277226" y="14728508"/>
+            <a:ext cx="2466974" cy="654366"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>LinkNodeEndVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>ModuleName	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Tesrsrc.exe</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>Extention	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>exe</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="角丸四角形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8277225" y="15567953"/>
+            <a:ext cx="2457450" cy="843623"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>EndNodeVertex</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>language	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>C#</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>CreateData	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>2015.06.08</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>UpdateDate	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+              <a:t>＝　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>2015.06.08</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="93" name="曲線コネクタ 92"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="72" idx="2"/>
+            <a:endCxn id="91" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000" flipH="1">
+            <a:off x="9394984" y="14612777"/>
+            <a:ext cx="231458" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="94" name="曲線コネクタ 93"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="91" idx="2"/>
+            <a:endCxn id="92" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="9415792" y="15473033"/>
+            <a:ext cx="185079" cy="4763"/>
+          </a:xfrm>
+          <a:prstGeom prst="curvedConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485672</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73271</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485672" y="3203960"/>
+          <a:ext cx="2342522" cy="3019871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class Program</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        static void Main(Object[] args_)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>            var i = arg_[0];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>            int v = func1(i);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        protected int func1(int aInt)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>            return aInt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>402457</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="角丸四角形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1091188" y="1213131"/>
+          <a:ext cx="1738052" cy="501370"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>itestall.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19673</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378988</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="角丸四角形 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3456956" y="1963789"/>
+          <a:ext cx="1734228" cy="492323"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>ITASourceAnalyzer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126102</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11746602" y="3115154"/>
+          <a:ext cx="5842430" cy="11026670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト仕様書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NameSpace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Program</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Method</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Main</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>要因分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　要因１　　　　要因２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Object[0]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Object[1]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-32769</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　*　　　　　負の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値以下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　*　　　　　負の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　*　　　　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　*　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>32767</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　 *　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最大値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　 *　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最大値以上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　  *　　　　　 英字　　　　　　　　　　　　　　　　←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>8      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>あ　　　　　　　　 *　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バイト文字　　　　　　　　　　　　←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　  *　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Object[1]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>にパラメタ指定　　　　←無効だが正常系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト項目</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Object[0] = -32769</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test2    Object[0] = -32768</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test3    Object[0] = 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test4    Object[0] = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test5    Object[0] = 32767</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test6    Object[0] = 32768</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test7    Object[0] = "a"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test8    Object[0] = "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>あ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Object[0] = null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test10  Object[0] = 1, Object[1] = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Method</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>func1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>要因分析</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　要因１　　要因２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-32769</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　*　　　　　負の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値以下</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　*　　　　　負の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　  *　　　　   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　  *　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最小値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>32767</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　  *　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最大値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　  *　　　　　正の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の最大値以上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(x32)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　  *　　　　　 英字　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>←エラー系</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト項目</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>aInt = -32769</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test2   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = -32768</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test3   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test4   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test5   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = 32767</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test6   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = 32768</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Test7   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>aInt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> = "a"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199331</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="カギ線コネクタ 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="191" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2824143" y="1454260"/>
+          <a:ext cx="1499927" cy="509529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73271</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19673</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="カギ線コネクタ 209"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="110" idx="3"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2823097" y="2209951"/>
+          <a:ext cx="633859" cy="2473681"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378988</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="カギ線コネクタ 212"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="3"/>
+          <a:endCxn id="197" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191184" y="2209951"/>
+          <a:ext cx="1835781" cy="936404"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47835</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="角丸四角形 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734596" y="2041645"/>
+          <a:ext cx="1734228" cy="492323"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>ITATestGenerater</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>313082</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="カギ線コネクタ 276"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="3"/>
+          <a:endCxn id="199" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13394768" y="2243957"/>
+          <a:ext cx="1273049" cy="871197"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="テキスト ボックス 281"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="496958" y="2799522"/>
+          <a:ext cx="1896717" cy="323022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ソースリスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682489</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516836</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>210378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="テキスト ボックス 286"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3432315" y="2769704"/>
+          <a:ext cx="1896717" cy="323022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>グラフ形式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47835</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>239160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="288" name="カギ線コネクタ 287"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="197" idx="3"/>
+          <a:endCxn id="276" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10616647" y="2287807"/>
+          <a:ext cx="1117949" cy="8039570"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>122585</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>644389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="テキスト ボックス 293"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11809346" y="2814431"/>
+          <a:ext cx="1896717" cy="323022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト仕様書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227492</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="カギ線コネクタ 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="276" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2795746" y="1482657"/>
+          <a:ext cx="9678175" cy="596852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18843170" y="3150053"/>
+          <a:ext cx="6885216" cy="11219090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>244930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="306" name="テキスト ボックス 305"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19493713" y="3512418"/>
+          <a:ext cx="5743396" cy="3630148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1Test1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class TestClass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        Main() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルを開く </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-32769</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了するまで最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>秒間だけ待機する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            p.WaitForExit(10000); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了したか確認する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            if (p.HasExited) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了しました。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了していません。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295484</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>654800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="角丸四角形 306"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18665127" y="2109444"/>
+          <a:ext cx="1720030" cy="501788"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>ITATPGenerater</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>654800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="307" idx="3"/>
+          <a:endCxn id="303" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20385157" y="2360338"/>
+          <a:ext cx="1726450" cy="878161"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>475142</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150015</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="309" name="カギ線コネクタ 308"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="307" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2795746" y="1482657"/>
+          <a:ext cx="16729396" cy="626787"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295484</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="カギ線コネクタ 311"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="199" idx="3"/>
+          <a:endCxn id="307" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17508990" y="2360338"/>
+          <a:ext cx="1156137" cy="6618735"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>343020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>184468</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>235345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="テキスト ボックス 314"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18712663" y="2842000"/>
+          <a:ext cx="1882519" cy="332488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テストプログラム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>247770</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>89218</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="テキスト ボックス 316"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19450170" y="3205311"/>
+          <a:ext cx="1898848" cy="280839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test1.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>258783</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>505238</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>138798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="テキスト ボックス 317"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507566" y="7557650"/>
+          <a:ext cx="5746107" cy="3630148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1Test1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class TestClass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        Main() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルを開く </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>-32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了するまで最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>秒間だけ待機する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            p.WaitForExit(10000); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了したか確認する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            if (p.HasExited) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了しました。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了していません。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>103072</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="テキスト ボックス 318"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19657988" y="7345228"/>
+          <a:ext cx="1919629" cy="285169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test2.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261505</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="テキスト ボックス 319"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19311505" y="11857272"/>
+          <a:ext cx="5689312" cy="2158085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1Test1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class TestClass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        Main() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルを開く </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>264346</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>105794</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>103421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="テキスト ボックス 320"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19314346" y="11572349"/>
+          <a:ext cx="1882519" cy="287643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test3.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="323" name="直線コネクタ 322"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22043571" y="13702393"/>
+          <a:ext cx="0" cy="244928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>274865</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>16326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>274865</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>16325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="325" name="直線コネクタ 324"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22046294" y="14222183"/>
+          <a:ext cx="0" cy="244928"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="テキスト ボックス 325"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18840450" y="14697075"/>
+          <a:ext cx="6057900" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>EXE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の内部メソッドのテストはどうやってやるか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　案．テスト対象のクラスを生成して、外から呼び出す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>pubulic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ではないメソッドは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　案．テスト対象のクラスを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Partial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にして、同じクラスのテストクラスを生成する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　課題：テスト対象のクラスが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Partial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でなかった場合は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　案．</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：例えば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Open</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（）してから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Init()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しないといけないような、順序のある場合は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　案．メインから追いかけて、順序を導く？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　課題：イベント待ち系のアプリでは、非同期に呼ばれるので追いかけられない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　案．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Open()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Init()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のような必須の準備は、初期化時に呼ばれるので、調べられる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　イベントハンドラは順序が有る場合、順序判定ロジックがあるはず。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　課題：無かったら？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　案．テスト対象のアプリを様々に動作させて、ルートを通す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：前ルート通せないのでは？機能テスト的になるのでは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>30744</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57960</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="正方形/長方形 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26689538" y="3109150"/>
+          <a:ext cx="6862804" cy="11087421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>111717</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>473274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="角丸四角形 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26857917" y="1974331"/>
+          <a:ext cx="1733157" cy="469131"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>ITATPBuilder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>473274</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>44352</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="329" name="カギ線コネクタ 328"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="3"/>
+          <a:endCxn id="327" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28591074" y="2208897"/>
+          <a:ext cx="1628478" cy="812847"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74317</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>292496</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="330" name="カギ線コネクタ 329"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="3"/>
+          <a:endCxn id="328" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2817517" y="1384686"/>
+          <a:ext cx="24906979" cy="589645"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>111717</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="カギ線コネクタ 330"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="303" idx="3"/>
+          <a:endCxn id="328" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25728386" y="2208897"/>
+          <a:ext cx="1129531" cy="6203039"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>42980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>574990</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="テキスト ボックス 334"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26974918" y="2776685"/>
+          <a:ext cx="1913135" cy="325684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テストモジュール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>478973</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="テキスト ボックス 335"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27012902" y="3717472"/>
+          <a:ext cx="2432956" cy="1262742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>481812</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="テキスト ボックス 336"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27292616" y="3366289"/>
+          <a:ext cx="1365210" cy="282910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test1.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>482286</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>193814</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="テキスト ボックス 337"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27293090" y="5389139"/>
+          <a:ext cx="2461354" cy="1239078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>485125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>64841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>475422</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="テキスト ボックス 338"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27295929" y="5108950"/>
+          <a:ext cx="1365210" cy="282910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test2.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>491814</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>203342</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="テキスト ボックス 339"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27423752" y="7067602"/>
+          <a:ext cx="2473778" cy="1228724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>494653</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>484950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>164698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="テキスト ボックス 340"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27426591" y="6789483"/>
+          <a:ext cx="1371422" cy="280840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test3.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2696,7 +10696,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="HDOfficeLightV0">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2738,7 +10738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2747,7 +10747,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -2773,7 +10773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2782,7 +10782,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -2817,23 +10817,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2843,23 +10843,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2872,21 +10872,18 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -2921,16 +10918,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -2948,23 +10945,38 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AV76" sqref="AV76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2974,9 +10986,9 @@
     <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" customWidth="1"/>
     <col min="9" max="10" width="44.25" customWidth="1"/>
-    <col min="11" max="11" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.25" customWidth="1"/>
     <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2994,16 +11006,16 @@
         <v>42</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="67.5" customHeight="1">
+    <row r="5" spans="2:11" ht="81">
       <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
@@ -3014,7 +11026,7 @@
         <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
@@ -3037,7 +11049,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
@@ -3063,7 +11075,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
@@ -3088,7 +11100,7 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
@@ -3098,14 +11110,14 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -3120,10 +11132,10 @@
         <v>30</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
@@ -3133,10 +11145,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -3152,7 +11164,7 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
@@ -3164,7 +11176,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3174,7 +11186,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3184,7 +11196,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3196,7 +11208,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="4"/>
     </row>

--- a/docs/記憶構造.xlsx
+++ b/docs/記憶構造.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全体概要" sheetId="2" r:id="rId1"/>
@@ -972,14 +972,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>71425</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -988,8 +988,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3428999" y="2995612"/>
-          <a:ext cx="7162800" cy="13677900"/>
+          <a:off x="3417793" y="3648903"/>
+          <a:ext cx="7140388" cy="14071787"/>
           <a:chOff x="3771900" y="2771774"/>
           <a:chExt cx="7162800" cy="13801726"/>
         </a:xfrm>
@@ -3385,14 +3385,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>485672</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60710</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>73271</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179119</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3401,8 +3401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485672" y="3203960"/>
-          <a:ext cx="2342522" cy="3019871"/>
+          <a:off x="485672" y="3727823"/>
+          <a:ext cx="2349849" cy="2975909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3549,13 +3549,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>402457</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4189</xdr:rowOff>
+      <xdr:rowOff>15397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>74317</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>21982</xdr:rowOff>
+      <xdr:rowOff>33190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3564,8 +3564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1091188" y="1213131"/>
-          <a:ext cx="1738052" cy="501370"/>
+          <a:off x="1088257" y="1206022"/>
+          <a:ext cx="1729260" cy="494043"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3593,10 +3593,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>itestall.exe</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3606,14 +3606,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19673</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42224</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>378988</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>54155</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3622,8 +3622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3456956" y="1963789"/>
-          <a:ext cx="1734228" cy="492323"/>
+          <a:off x="3453686" y="2379859"/>
+          <a:ext cx="1732920" cy="493194"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3651,10 +3651,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>ITASourceAnalyzer</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3664,14 +3664,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>126102</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55948</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>117650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3680,8 +3680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11746602" y="3115154"/>
-          <a:ext cx="5842430" cy="11026670"/>
+          <a:off x="11865665" y="3723061"/>
+          <a:ext cx="5898459" cy="11158339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5906,32 +5906,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74317</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13086</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581789</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>199331</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42224</xdr:rowOff>
+      <xdr:colOff>199330</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="209" name="カギ線コネクタ 208"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="3"/>
+          <a:stCxn id="111" idx="2"/>
           <a:endCxn id="191" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2824143" y="1454260"/>
-          <a:ext cx="1499927" cy="509529"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2806646" y="866359"/>
+          <a:ext cx="662248" cy="2364752"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -5958,14 +5960,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>73271</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48190</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19673</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119915</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>216406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5977,8 +5979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2823097" y="2209951"/>
-          <a:ext cx="633859" cy="2473681"/>
+          <a:off x="2820482" y="2626456"/>
+          <a:ext cx="633204" cy="2643213"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6010,14 +6012,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>378988</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48190</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6029,8 +6031,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5191184" y="2209951"/>
-          <a:ext cx="1835781" cy="936404"/>
+          <a:off x="5186606" y="2626456"/>
+          <a:ext cx="1833819" cy="1102068"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6060,14 +6062,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47835</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120080</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>216450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>407150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>132011</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6076,8 +6078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734596" y="2041645"/>
-          <a:ext cx="1734228" cy="492323"/>
+          <a:off x="11723480" y="2382134"/>
+          <a:ext cx="1732920" cy="493194"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6105,10 +6107,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>ITATestGenerater</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6118,14 +6120,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>407150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>126045</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>313082</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>55948</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151186</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6137,8 +6139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13394768" y="2243957"/>
-          <a:ext cx="1273049" cy="871197"/>
+          <a:off x="13456400" y="2628731"/>
+          <a:ext cx="1279537" cy="1131929"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6168,14 +6170,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>496958</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331305</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6184,8 +6186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="496958" y="2799522"/>
-          <a:ext cx="1896717" cy="323022"/>
+          <a:off x="496958" y="3348233"/>
+          <a:ext cx="1906035" cy="318881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6220,7 +6222,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -6236,14 +6238,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>682489</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127552</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>222790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>516836</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>210378</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6252,8 +6254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3432315" y="2769704"/>
-          <a:ext cx="1896717" cy="323022"/>
+          <a:off x="3444739" y="3318415"/>
+          <a:ext cx="1906035" cy="320951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6288,7 +6290,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -6304,14 +6306,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>126046</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47835</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>239160</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6323,8 +6325,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10616647" y="2287807"/>
-          <a:ext cx="1117949" cy="8039570"/>
+          <a:off x="10606838" y="2628731"/>
+          <a:ext cx="1116642" cy="8294928"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6356,14 +6358,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>122585</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>172279</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>644389</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14910</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6372,8 +6374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11809346" y="2814431"/>
-          <a:ext cx="1896717" cy="323022"/>
+          <a:off x="11862148" y="3363142"/>
+          <a:ext cx="1902929" cy="318881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6408,7 +6410,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -6422,32 +6424,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74317</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13086</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581790</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>227492</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120080</xdr:rowOff>
+      <xdr:colOff>227494</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>216449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="299" name="カギ線コネクタ 298"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="3"/>
+          <a:stCxn id="111" idx="2"/>
           <a:endCxn id="276" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2795746" y="1482657"/>
-          <a:ext cx="9678175" cy="596852"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6940406" y="-3267401"/>
+          <a:ext cx="664523" cy="10634546"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -6474,14 +6478,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6490,8 +6494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18843170" y="3150053"/>
-          <a:ext cx="6885216" cy="11219090"/>
+          <a:off x="18971758" y="3721541"/>
+          <a:ext cx="6932841" cy="11219090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6531,14 +6535,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>244930</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>488674</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6547,8 +6551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19493713" y="3512418"/>
-          <a:ext cx="5743396" cy="3630148"/>
+          <a:off x="19580680" y="4054917"/>
+          <a:ext cx="5768244" cy="3599088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6878,14 +6882,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>295484</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150015</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>216129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>654800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161946</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6894,8 +6898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18665127" y="2109444"/>
-          <a:ext cx="1720030" cy="501788"/>
+          <a:off x="18812084" y="2359254"/>
+          <a:ext cx="1730916" cy="488181"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6923,10 +6927,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>ITATPGenerater</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6936,14 +6940,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>654800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>155981</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149666</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6955,8 +6959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20385157" y="2360338"/>
-          <a:ext cx="1726450" cy="878161"/>
+          <a:off x="20681113" y="2603345"/>
+          <a:ext cx="1757066" cy="1118196"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6984,32 +6988,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74317</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13086</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>475142</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150015</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>216128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="309" name="カギ線コネクタ 308"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="3"/>
+          <a:stCxn id="111" idx="2"/>
           <a:endCxn id="307" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2795746" y="1482657"/>
-          <a:ext cx="16729396" cy="626787"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10485620" y="-6832669"/>
+          <a:ext cx="659189" cy="17724655"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -7036,14 +7042,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>155981</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>295484</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161644</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15356</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7055,8 +7061,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17508990" y="2360338"/>
-          <a:ext cx="1156137" cy="6618735"/>
+          <a:off x="17645061" y="2603345"/>
+          <a:ext cx="1167023" cy="6698886"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7088,14 +7094,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>343020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147786</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>184468</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>235345</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7104,1384 +7110,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18712663" y="2842000"/>
-          <a:ext cx="1882519" cy="332488"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テストプログラム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>247770</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>89218</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="テキスト ボックス 316"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19450170" y="3205311"/>
-          <a:ext cx="1898848" cy="280839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>App1Test1.cs</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>258783</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>111585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>505238</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>138798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="テキスト ボックス 317"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19507566" y="7557650"/>
-          <a:ext cx="5746107" cy="3630148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>using System</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>namespace App1Test1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>    class TestClass</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>        Main() </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>ファイルを開く </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>-32768</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>"); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>終了するまで最大</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>秒間だけ待機する </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            p.WaitForExit(10000); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>終了したか確認する </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            if (p.HasExited) </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            { </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>                Log.Writeln("</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>終了しました。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>"); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            else </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            { </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>                Log.Writeln("</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>終了していません。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>"); </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            } </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>261624</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>103072</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114306</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="テキスト ボックス 318"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19657988" y="7345228"/>
-          <a:ext cx="1919629" cy="285169"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>App1Test2.cs</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>261505</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>100701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="テキスト ボックス 319"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19311505" y="11857272"/>
-          <a:ext cx="5689312" cy="2158085"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>using System</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>namespace App1Test1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>    class TestClass</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>    {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>        Main() </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            //</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>ファイルを開く </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>"); </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>264346</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>60706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>105794</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>103421</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="テキスト ボックス 320"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19314346" y="11572349"/>
-          <a:ext cx="1882519" cy="287643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>App1Test3.cs</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="323" name="直線コネクタ 322"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22043571" y="13702393"/>
-          <a:ext cx="0" cy="244928"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>274865</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>16326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>274865</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>16325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="325" name="直線コネクタ 324"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22046294" y="14222183"/>
-          <a:ext cx="0" cy="244928"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="326" name="テキスト ボックス 325"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18840450" y="14697075"/>
-          <a:ext cx="6057900" cy="3609975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>課題：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>EXE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の内部メソッドのテストはどうやってやるか</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　案．テスト対象のクラスを生成して、外から呼び出す。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　課題：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>pubulic</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ではないメソッドは？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　案．テスト対象のクラスを</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Partial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>にして、同じクラスのテストクラスを生成する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　課題：テスト対象のクラスが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Partial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>でなかった場合は？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　案．</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　課題：例えば</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Open</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（）してから</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Init()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>しないといけないような、順序のある場合は？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　案．メインから追いかけて、順序を導く？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　課題：イベント待ち系のアプリでは、非同期に呼ばれるので追いかけられない。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　案．</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Open()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Init()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のような必須の準備は、初期化時に呼ばれるので、調べられる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　イベントハンドラは順序が有る場合、順序判定ロジックがあるはず。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　　　　　　　課題：無かったら？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　案．テスト対象のアプリを様々に動作させて、ルートを通す。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　課題：前ルート通せないのでは？機能テスト的になるのでは？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>30744</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>77159</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="正方形/長方形 326"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26689538" y="3109150"/>
-          <a:ext cx="6862804" cy="11087421"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>111717</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>473274</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157462</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="角丸四角形 327"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26857917" y="1974331"/>
-          <a:ext cx="1733157" cy="469131"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>ITATPBuilder</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>473274</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>151497</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>44352</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49944</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="329" name="カギ線コネクタ 328"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="328" idx="3"/>
-          <a:endCxn id="327" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28591074" y="2208897"/>
-          <a:ext cx="1628478" cy="812847"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>74317</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>292496</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145531</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="330" name="カギ線コネクタ 329"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="3"/>
-          <a:endCxn id="328" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2817517" y="1384686"/>
-          <a:ext cx="24906979" cy="589645"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>151497</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>111717</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="331" name="カギ線コネクタ 330"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="303" idx="3"/>
-          <a:endCxn id="328" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="25728386" y="2208897"/>
-          <a:ext cx="1129531" cy="6203039"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>42980</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>574990</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6744</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="テキスト ボックス 334"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26974918" y="2776685"/>
+          <a:off x="18988208" y="3338649"/>
           <a:ext cx="1913135" cy="325684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8517,12 +7146,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テストモジュール</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テストプログラム</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8531,26 +7160,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>478973</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>247770</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:rowOff>204924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>89218</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="テキスト ボックス 335"/>
+        <xdr:cNvPr id="317" name="テキスト ボックス 316"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27012902" y="3717472"/>
-          <a:ext cx="2432956" cy="1262742"/>
+          <a:off x="19583520" y="3776799"/>
+          <a:ext cx="1913136" cy="280839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8584,8 +7213,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="+mn-lt"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test1.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -8594,26 +7233,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>481812</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3550</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>258783</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>206823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>472109</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>505238</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>234036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="テキスト ボックス 336"/>
+        <xdr:cNvPr id="318" name="テキスト ボックス 317"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27292616" y="3366289"/>
-          <a:ext cx="1365210" cy="282910"/>
+          <a:off x="19594533" y="8064948"/>
+          <a:ext cx="5770955" cy="3599088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8648,17 +7287,275 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>App1Test1.exe</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1Test1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class TestClass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        Main() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルを開く </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>-32768</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了するまで最大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>秒間だけ待機する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            p.WaitForExit(10000); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了したか確認する </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            if (p.HasExited) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了しました。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>                Log.Writeln("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>終了していません。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            } </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -8667,26 +7564,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>482286</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104835</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261624</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>193814</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142934</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>103072</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="テキスト ボックス 337"/>
+        <xdr:cNvPr id="319" name="テキスト ボックス 318"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27293090" y="5389139"/>
-          <a:ext cx="2461354" cy="1239078"/>
+          <a:off x="19597374" y="7786830"/>
+          <a:ext cx="1913136" cy="280839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8720,8 +7617,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="+mn-lt"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test2.cs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -8730,26 +7637,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>485125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64841</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261505</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>195939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>475422</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>107556</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>149666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="339" name="テキスト ボックス 338"/>
+        <xdr:cNvPr id="320" name="テキスト ボックス 319"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27295929" y="5108950"/>
-          <a:ext cx="1365210" cy="282910"/>
+          <a:off x="19597255" y="12102189"/>
+          <a:ext cx="5770955" cy="2096852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8784,18 +7691,510 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>using System</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>namespace App1Test1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    class TestClass</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>    {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        Main() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイルを開く </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>            System.Diagnostics.Process p =System.Diagnostics.Process.Start("Program.exe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>"); </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>264346</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>105794</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>198659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="テキスト ボックス 320"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19600096" y="11824069"/>
+          <a:ext cx="1913136" cy="280840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>App1Test2.exe</a:t>
+            <a:t>App1Test3.cs</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>88434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="323" name="直線コネクタ 322"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22370142" y="13899685"/>
+          <a:ext cx="0" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>274865</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>274865</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>111563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="325" name="直線コネクタ 324"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22372865" y="14399064"/>
+          <a:ext cx="0" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="テキスト ボックス 325"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18969038" y="15268563"/>
+          <a:ext cx="6100762" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>EXE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の内部メソッドのテストはどうやってやるか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　案．テスト対象のクラスを生成して、外から呼び出す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>pubulic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ではないメソッドは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　案．テスト対象のクラスを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Partial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にして、同じクラスのテストクラスを生成する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　課題：テスト対象のクラスが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Partial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でなかった場合は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　案．</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：例えば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Open</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（）してから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Init()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しないといけないような、順序のある場合は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　案．メインから追いかけて、順序を導く？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　課題：イベント待ち系のアプリでは、非同期に呼ばれるので追いかけられない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　案．</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Open()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Init()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のような必須の準備は、初期化時に呼ばれるので、調べられる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　イベントハンドラは順序が有る場合、順序判定ロジックがあるはず。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　　　　　　　課題：無かったら？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　案．テスト対象のアプリを様々に動作させて、ルートを通す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　課題：前ルート通せないのでは？機能テスト的になるのでは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8804,24 +8203,497 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>491814</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161977</xdr:rowOff>
+      <xdr:colOff>30744</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>203342</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>200076</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57960</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="テキスト ボックス 339"/>
+        <xdr:cNvPr id="327" name="正方形/長方形 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26962682" y="3717057"/>
+          <a:ext cx="6932841" cy="11219090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>111717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>473274</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="角丸四角形 327"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26857917" y="2354770"/>
+          <a:ext cx="1733157" cy="488181"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ITATPBuilder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>473274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>217611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>44352</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="329" name="カギ線コネクタ 328"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="3"/>
+          <a:endCxn id="327" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28591074" y="2598861"/>
+          <a:ext cx="1628478" cy="1118196"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>292496</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>211644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="330" name="カギ線コネクタ 329"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="328" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="14511339" y="-10858388"/>
+          <a:ext cx="654705" cy="25771609"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>217611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>111717</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="カギ線コネクタ 330"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="303" idx="3"/>
+          <a:endCxn id="328" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25904599" y="2598861"/>
+          <a:ext cx="1139056" cy="6732225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>42980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>574990</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="テキスト ボックス 334"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27423752" y="7067602"/>
+          <a:off x="26974918" y="3348173"/>
+          <a:ext cx="1913135" cy="325684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テストモジュール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>478973</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="テキスト ボックス 335"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27410911" y="4186906"/>
+          <a:ext cx="2473778" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>481812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="テキスト ボックス 336"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27413750" y="3908788"/>
+          <a:ext cx="1371422" cy="280839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test1.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>482286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>193814</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="テキスト ボックス 337"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27414224" y="5915073"/>
           <a:ext cx="2473778" cy="1228724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8867,24 +8739,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>494653</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121983</xdr:rowOff>
+      <xdr:colOff>485125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>484950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>164698</xdr:rowOff>
+      <xdr:colOff>475422</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>202794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="テキスト ボックス 340"/>
+        <xdr:cNvPr id="339" name="テキスト ボックス 338"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27426591" y="6789483"/>
+          <a:off x="27417063" y="5636954"/>
           <a:ext cx="1371422" cy="280840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8925,7 +8797,7 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>App1Test3.exe</a:t>
+            <a:t>App1Test2.exe</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -8935,6 +8807,900 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>491814</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>203342</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="テキスト ボックス 339"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27423752" y="7639090"/>
+          <a:ext cx="2473778" cy="1228724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>494653</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>217221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>484950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="テキスト ボックス 340"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27426591" y="7360971"/>
+          <a:ext cx="1371422" cy="280840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>App1Test3.exe</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>465365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>465365</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28778428" y="9216344"/>
+          <a:ext cx="0" cy="238123"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>561698</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>651570</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34739639" y="3688122"/>
+          <a:ext cx="4874784" cy="3453216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>478433</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>149427</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="角丸四角形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34768433" y="2357289"/>
+          <a:ext cx="1728394" cy="485380"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ITATPExecutor</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>149427</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>218729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>263734</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36496827" y="2599979"/>
+          <a:ext cx="800107" cy="1130165"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581286</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>656829</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="カギ線コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="18464146" y="-14811195"/>
+          <a:ext cx="657224" cy="33679743"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>57960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>218729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>478433</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="カギ線コネクタ 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="327" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="33662160" y="2599979"/>
+          <a:ext cx="1106273" cy="6726623"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>46101</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40615721" y="3640508"/>
+          <a:ext cx="12064409" cy="6400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199329</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>226106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="カギ線コネクタ 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="2"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22749988" y="-15556790"/>
+          <a:ext cx="8388" cy="36868073"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2825322"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>487965</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>158959</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="角丸四角形 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40264365" y="2358965"/>
+          <a:ext cx="1728394" cy="494904"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ITAMonitor</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>158959</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>225167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>165926</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41992759" y="2606417"/>
+          <a:ext cx="4807567" cy="1076113"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581286</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666361</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="カギ線コネクタ 98"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="97" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21211274" y="-17558323"/>
+          <a:ext cx="658900" cy="39175675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227493</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666864</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="カギ線コネクタ 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="2"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="26886023" y="-11420756"/>
+          <a:ext cx="6113" cy="28598279"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3839571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>475142</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666362</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="307" idx="2"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="30399835" y="-7874858"/>
+          <a:ext cx="6434" cy="21451020"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3653000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>292496</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666362</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="カギ線コネクタ 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="2"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="34421070" y="-3853623"/>
+          <a:ext cx="10918" cy="13404066"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2193790"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>656830</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>666362</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="97" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="38374996" y="100303"/>
+          <a:ext cx="11200" cy="5495932"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2141071"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10950,10 +11716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AV76" sqref="AV76"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BH13" sqref="BH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10962,8 +11731,8 @@
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="20" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10972,7 +11741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
